--- a/square_bonds_python/ERRORS_m_DIFERENTS.xlsx
+++ b/square_bonds_python/ERRORS_m_DIFERENTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21360" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,26 +163,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,6 +174,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -377,6 +383,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.3623698208985299E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6513225315384597E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7150869706139702E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6327088046716904E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.117888548961763</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.13864648253370601</c:v>
                 </c:pt>
@@ -481,6 +502,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.8617689090261698E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.86864564008474E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.97025832430234E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3857739385325003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7051146480562794E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>9.7309209875961505E-2</c:v>
                 </c:pt>
@@ -585,6 +621,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.2568904062557098E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.47042480269E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2139887364393E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11930113325436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13317875188148201</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.18588035996800101</c:v>
                 </c:pt>
@@ -689,6 +740,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.40875703215018E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4757948680303E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1332490259591702E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0308201972159697E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3016965853418103E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>9.9029620617061706E-2</c:v>
                 </c:pt>
@@ -793,6 +859,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.0238640574352301E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1015983207882999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17018374151199E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1454492944430198E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6560763478477595E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.106727711300196</c:v>
                 </c:pt>
@@ -897,6 +978,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.10518632648365E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1727292777396299E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5636487232703899E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6732907400456998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3615746486967301E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>9.0633327810185196E-2</c:v>
                 </c:pt>
@@ -1001,6 +1097,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.41360839258031E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4077094924902997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8280025305980001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7845163217847296E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.105057413497848</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.119045556992066</c:v>
                 </c:pt>
@@ -1105,6 +1216,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.61832525342789E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8374752282336499E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7845002846165503E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1245869871234E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2000287271077799E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.156198127516122</c:v>
                 </c:pt>
@@ -1209,6 +1335,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.3158593477993501E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2668627002819398E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.81557334276833E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6705997080228702E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4113712424105994E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.16083846352228201</c:v>
                 </c:pt>
@@ -1243,11 +1384,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413433400"/>
-        <c:axId val="418296856"/>
+        <c:axId val="163029256"/>
+        <c:axId val="163074424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413433400"/>
+        <c:axId val="163029256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1307,12 +1448,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418296856"/>
+        <c:crossAx val="163074424"/>
         <c:crossesAt val="1.0000000000000002E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="418296856"/>
+        <c:axId val="163074424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1372,7 +1513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413433400"/>
+        <c:crossAx val="163029256"/>
         <c:crossesAt val="1.0000000000000002E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1626,6 +1767,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.156831150883805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14516554188164499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15999482922387701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16350155452241499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.174716344588148</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.19202737063223899</c:v>
                 </c:pt>
@@ -1730,6 +1886,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.0195305955092499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5118669726084403E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4166427268428398E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1705775556891402E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2549517989450797E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.111501291134059</c:v>
                 </c:pt>
@@ -1834,6 +2005,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.1349817033514298E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0831323825993598E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7499386972790194E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10825604775887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.120984112156026</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.21141319436105799</c:v>
                 </c:pt>
@@ -1938,6 +2124,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8895547671270399E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2444931391479701E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2916426789591002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4799885829639299E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5196078504268201E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.10171574169875799</c:v>
                 </c:pt>
@@ -2042,6 +2243,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.8420580380889801E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5007887067745E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5355898144756703E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5688809715771703E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1797106885251594E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.101904274576052</c:v>
                 </c:pt>
@@ -2146,6 +2362,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9103515662657101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.86107550531076E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8186360355377001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.10371941408976E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7740626538183205E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>9.0052005091284998E-2</c:v>
                 </c:pt>
@@ -2250,6 +2481,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.5857555949848801E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7310980352510598E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.12523209906647E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7172576519326894E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.107529518484223</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.14382147887416</c:v>
                 </c:pt>
@@ -2354,6 +2600,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.4882655857122099E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6255878050525797E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9140446204026501E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9487689416322704E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.104476095226021</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.120222551189211</c:v>
                 </c:pt>
@@ -2458,6 +2719,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.26447668213236E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5109029245573499E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4703371682155597E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3636485001662602E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10670339774679601</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.12723148564454601</c:v>
                 </c:pt>
@@ -2492,11 +2768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68580816"/>
-        <c:axId val="416517008"/>
+        <c:axId val="162009504"/>
+        <c:axId val="162277304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68580816"/>
+        <c:axId val="162009504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2556,12 +2832,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416517008"/>
+        <c:crossAx val="162277304"/>
         <c:crossesAt val="1.0000000000000002E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="416517008"/>
+        <c:axId val="162277304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2621,7 +2897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68580816"/>
+        <c:crossAx val="162009504"/>
         <c:crossesAt val="1.0000000000000002E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4153,13 +4429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:BA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
+      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,368 +4444,595 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="s">
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>25000</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
+      <c r="B5" s="15">
+        <v>5.3623698208985299E-2</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3.8617689090261698E-2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>5.2568904062557098E-2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2.40875703215018E-2</v>
+      </c>
+      <c r="F5" s="15">
+        <v>2.0238640574352301E-2</v>
+      </c>
+      <c r="G5" s="15">
+        <v>2.10518632648365E-2</v>
+      </c>
+      <c r="H5" s="15">
+        <v>2.41360839258031E-2</v>
+      </c>
+      <c r="I5" s="15">
+        <v>2.61832525342789E-2</v>
+      </c>
+      <c r="J5" s="15">
+        <v>2.3158593477993501E-2</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0.156831150883805</v>
+      </c>
+      <c r="L5" s="15">
+        <v>4.0195305955092499E-2</v>
+      </c>
+      <c r="M5" s="15">
+        <v>7.1349817033514298E-2</v>
+      </c>
+      <c r="N5" s="15">
+        <v>1.8895547671270399E-2</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1.8420580380889801E-2</v>
+      </c>
+      <c r="P5" s="15">
+        <v>1.9103515662657101E-2</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>2.5857555949848801E-2</v>
+      </c>
+      <c r="R5" s="15">
+        <v>2.4882655857122099E-2</v>
+      </c>
+      <c r="S5" s="15">
+        <v>2.26447668213236E-2</v>
+      </c>
       <c r="T5" s="2">
         <f t="shared" ref="T5:T7" si="0">T6*2</f>
-        <v>21712</v>
+        <v>23760</v>
       </c>
       <c r="U5" s="2">
         <f>T5/3600</f>
-        <v>6.0311111111111115</v>
-      </c>
+        <v>6.6</v>
+      </c>
+      <c r="X5" s="2">
+        <f>AVERAGE(B5:D5)</f>
+        <v>4.8270097120601367E-2</v>
+      </c>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14">
+        <f t="shared" ref="Y5:BA5" si="1">AVERAGE(E5:G5)</f>
+        <v>2.1792691386896868E-2</v>
+      </c>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14">
+        <f t="shared" si="1"/>
+        <v>2.4492643312691836E-2</v>
+      </c>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14">
+        <f t="shared" si="1"/>
+        <v>8.9458757957470603E-2</v>
+      </c>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14">
+        <f t="shared" si="1"/>
+        <v>1.8806547904939099E-2</v>
+      </c>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14">
+        <f t="shared" si="1"/>
+        <v>2.4461659542764833E-2</v>
+      </c>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <f>A5/2</f>
         <v>12500</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
+      <c r="B6" s="15">
+        <v>3.6513225315384597E-2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>4.86864564008474E-2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5.47042480269E-2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2.4757948680303E-2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3.1015983207882999E-2</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2.1727292777396299E-2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>3.4077094924902997E-2</v>
+      </c>
+      <c r="I6" s="15">
+        <v>3.8374752282336499E-2</v>
+      </c>
+      <c r="J6" s="15">
+        <v>4.2668627002819398E-2</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.14516554188164499</v>
+      </c>
+      <c r="L6" s="15">
+        <v>5.5118669726084403E-2</v>
+      </c>
+      <c r="M6" s="15">
+        <v>9.0831323825993598E-2</v>
+      </c>
+      <c r="N6" s="15">
+        <v>2.2444931391479701E-2</v>
+      </c>
+      <c r="O6" s="15">
+        <v>2.5007887067745E-2</v>
+      </c>
+      <c r="P6" s="15">
+        <v>2.86107550531076E-2</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>3.7310980352510598E-2</v>
+      </c>
+      <c r="R6" s="15">
+        <v>3.6255878050525797E-2</v>
+      </c>
+      <c r="S6" s="15">
+        <v>3.5109029245573499E-2</v>
+      </c>
       <c r="T6" s="2">
         <f t="shared" si="0"/>
-        <v>10856</v>
+        <v>11880</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" ref="U6:U11" si="1">T6/3600</f>
-        <v>3.0155555555555558</v>
+        <f t="shared" ref="U6:U11" si="2">T6/3600</f>
+        <v>3.3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <f t="shared" ref="A7:A20" si="2">A6/2</f>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" ref="A7:A14" si="3">A6/2</f>
         <v>6250</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+      <c r="B7" s="15">
+        <v>5.7150869706139702E-2</v>
+      </c>
+      <c r="C7" s="15">
+        <v>3.97025832430234E-2</v>
+      </c>
+      <c r="D7" s="15">
+        <v>6.2139887364393E-2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4.1332490259591702E-2</v>
+      </c>
+      <c r="F7" s="15">
+        <v>3.17018374151199E-2</v>
+      </c>
+      <c r="G7" s="15">
+        <v>3.5636487232703899E-2</v>
+      </c>
+      <c r="H7" s="15">
+        <v>3.8280025305980001E-2</v>
+      </c>
+      <c r="I7" s="15">
+        <v>4.7845002846165503E-2</v>
+      </c>
+      <c r="J7" s="15">
+        <v>5.81557334276833E-2</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.15999482922387701</v>
+      </c>
+      <c r="L7" s="15">
+        <v>7.4166427268428398E-2</v>
+      </c>
+      <c r="M7" s="15">
+        <v>8.7499386972790194E-2</v>
+      </c>
+      <c r="N7" s="15">
+        <v>3.2916426789591002E-2</v>
+      </c>
+      <c r="O7" s="15">
+        <v>3.5355898144756703E-2</v>
+      </c>
+      <c r="P7" s="15">
+        <v>3.8186360355377001E-2</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>5.12523209906647E-2</v>
+      </c>
+      <c r="R7" s="15">
+        <v>4.9140446204026501E-2</v>
+      </c>
+      <c r="S7" s="15">
+        <v>5.4703371682155597E-2</v>
+      </c>
       <c r="T7" s="2">
         <f t="shared" si="0"/>
-        <v>5428</v>
+        <v>5940</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5077777777777779</v>
+        <f t="shared" si="2"/>
+        <v>1.65</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="3"/>
+        <v>3125</v>
+      </c>
+      <c r="B8" s="15">
+        <v>8.6327088046716904E-2</v>
+      </c>
+      <c r="C8" s="15">
+        <v>5.3857739385325003E-2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.11930113325436</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5.0308201972159697E-2</v>
+      </c>
+      <c r="F8" s="15">
+        <v>5.1454492944430198E-2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>4.6732907400456998E-2</v>
+      </c>
+      <c r="H8" s="15">
+        <v>6.7845163217847296E-2</v>
+      </c>
+      <c r="I8" s="15">
+        <v>8.1245869871234E-2</v>
+      </c>
+      <c r="J8" s="15">
+        <v>6.6705997080228702E-2</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.16350155452241499</v>
+      </c>
+      <c r="L8" s="15">
+        <v>8.1705775556891402E-2</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0.10825604775887</v>
+      </c>
+      <c r="N8" s="15">
+        <v>4.4799885829639299E-2</v>
+      </c>
+      <c r="O8" s="15">
+        <v>4.5688809715771703E-2</v>
+      </c>
+      <c r="P8" s="15">
+        <v>5.10371941408976E-2</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>7.7172576519326894E-2</v>
+      </c>
+      <c r="R8" s="15">
+        <v>6.9487689416322704E-2</v>
+      </c>
+      <c r="S8" s="15">
+        <v>7.3636485001662602E-2</v>
+      </c>
+      <c r="T8" s="2">
+        <v>2970</v>
+      </c>
+      <c r="U8" s="2">
         <f t="shared" si="2"/>
-        <v>3125</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="2">
-        <f>T9*2</f>
-        <v>2714</v>
-      </c>
-      <c r="U8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.75388888888888894</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>1562</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="B9" s="15">
+        <v>0.117888548961763</v>
+      </c>
+      <c r="C9" s="15">
+        <v>8.7051146480562794E-2</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.13317875188148201</v>
+      </c>
+      <c r="E9" s="15">
+        <v>7.3016965853418103E-2</v>
+      </c>
+      <c r="F9" s="15">
+        <v>7.6560763478477595E-2</v>
+      </c>
+      <c r="G9" s="15">
+        <v>6.3615746486967301E-2</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.105057413497848</v>
+      </c>
+      <c r="I9" s="15">
+        <v>9.2000287271077799E-2</v>
+      </c>
+      <c r="J9" s="15">
+        <v>8.4113712424105994E-2</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0.174716344588148</v>
+      </c>
+      <c r="L9" s="15">
+        <v>9.2549517989450797E-2</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0.120984112156026</v>
+      </c>
+      <c r="N9" s="15">
+        <v>6.5196078504268201E-2</v>
+      </c>
+      <c r="O9" s="15">
+        <v>7.1797106885251594E-2</v>
+      </c>
+      <c r="P9" s="15">
+        <v>6.7740626538183205E-2</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0.107529518484223</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0.104476095226021</v>
+      </c>
+      <c r="S9" s="15">
+        <v>0.10670339774679601</v>
+      </c>
       <c r="T9" s="2">
         <f>AVERAGE(T10/2,T11)*4</f>
         <v>1357</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37694444444444447</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <f t="shared" si="2"/>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="3"/>
         <v>781</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="15">
         <v>0.13864648253370601</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="15">
         <v>9.7309209875961505E-2</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="15">
         <v>0.18588035996800101</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="15">
         <v>9.9029620617061706E-2</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="15">
         <v>0.106727711300196</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="15">
         <v>9.0633327810185196E-2</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="15">
         <v>0.119045556992066</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="15">
         <v>0.156198127516122</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="15">
         <v>0.16083846352228201</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="15">
         <v>0.19202737063223899</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="15">
         <v>0.111501291134059</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="15">
         <v>0.21141319436105799</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="15">
         <v>0.10171574169875799</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="15">
         <v>0.101904274576052</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="15">
         <v>9.0052005091284998E-2</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="15">
         <v>0.14382147887416</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="15">
         <v>0.120222551189211</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="15">
         <v>0.12723148564454601</v>
       </c>
       <c r="T10" s="2">
         <v>637</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17694444444444443</v>
       </c>
       <c r="V10" s="2">
@@ -4540,69 +5043,69 @@
         <v>83.708439897698042</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>390</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="15">
         <v>0.19242641042745601</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="15">
         <v>0.15548800957675499</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="15">
         <v>0.24399532136121099</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="15">
         <v>0.143787665136593</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="15">
         <v>0.15463652718134899</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="15">
         <v>0.148676380136848</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="15">
         <v>0.186864959449284</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="15">
         <v>0.21097344055112999</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="15">
         <v>0.21255269724912099</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="15">
         <v>0.22632865112789799</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="15">
         <v>0.165636006741508</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="15">
         <v>0.217275985752169</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="15">
         <v>0.11905025252669101</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="15">
         <v>0.13280613138644901</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="15">
         <v>0.134615341701327</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="15">
         <v>0.19853646594612201</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="15">
         <v>0.19524463201638001</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="15">
         <v>0.190760157254769</v>
       </c>
       <c r="T11" s="2">
         <v>360</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="V11" s="2">
@@ -4612,63 +5115,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <f t="shared" si="2"/>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="15">
         <v>0.29235896378072501</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="15">
         <v>0.18459934372084699</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="15">
         <v>0.32320456700573502</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="15">
         <v>0.18717428359892699</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="15">
         <v>0.18594576652241901</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="15">
         <v>0.20835390703071899</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="15">
         <v>0.27019295451928199</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="15">
         <v>0.33382594273893501</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="15">
         <v>0.29826585859962901</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="15">
         <v>0.302315104298364</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="15">
         <v>0.21829785683425501</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="15">
         <v>0.28901396238822202</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="15">
         <v>0.17093399758736399</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="15">
         <v>0.18887189072708399</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="15">
         <v>0.191123649691088</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="15">
         <v>0.27106966215033901</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="15">
         <v>0.29817854590167697</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="15">
         <v>0.28929018385903499</v>
       </c>
       <c r="V12" s="2">
@@ -4678,62 +5181,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>98</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="15">
         <v>0.37662828199970999</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="15">
         <v>0.27700711158027402</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="15">
         <v>0.45984951902925503</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="15">
         <v>0.24151069419915999</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="15">
         <v>0.28386576497796001</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="15">
         <v>0.28406384286710601</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="15">
         <v>0.39379418327365601</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="15">
         <v>0.42307184208177101</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="15">
         <v>0.42794076324117702</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="15">
         <v>0.37261694453080402</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="15">
         <v>0.357273435988471</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="15">
         <v>0.41949039300075902</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="15">
         <v>0.26868427409163598</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="15">
         <v>0.26232854933878602</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="15">
         <v>0.264969758188219</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="15">
         <v>0.37921446412159399</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="15">
         <v>0.38871995861241398</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="15">
         <v>0.38694866636112801</v>
       </c>
       <c r="V13" s="2" t="e">
@@ -4743,181 +5246,181 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <f t="shared" si="2"/>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="15">
         <v>0.51300038819278404</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="15">
         <v>0.43456004643822999</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="15">
         <v>0.56285148624166603</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="15">
         <v>0.38695833333333302</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="15">
         <v>0.40162558333333298</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="15">
         <v>0.38996811199592701</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="15">
         <v>0.51673123251744502</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="15">
         <v>0.54687896372172895</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="15">
         <v>0.55984653423345998</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="15">
         <v>0.470366837529404</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="15">
         <v>0.43609050381946102</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="15">
         <v>0.465193909431252</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="15">
         <v>0.35550444365050599</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="15">
         <v>0.38177860919017298</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="15">
         <v>0.36473448681240001</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="15">
         <v>0.52220997913502498</v>
       </c>
-      <c r="R14" s="13">
+      <c r="R14" s="15">
         <v>0.52695645452373097</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="15">
         <v>0.55410261863153298</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>25</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="15">
         <v>0.63685276009150305</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="15">
         <v>0.545566195409527</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="15">
         <v>0.662470491943979</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="15">
         <v>0.47348254081415703</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="15">
         <v>0.53442693610780601</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="15">
         <v>0.55130698625733898</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="15">
         <v>0.68818332701918405</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="15">
         <v>0.73042629573573603</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="15">
         <v>0.73346229114558703</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="15">
         <v>0.62212131172134499</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="15">
         <v>0.58649018376235795</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="15">
         <v>0.60266973278920899</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="15">
         <v>0.51677387897621396</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="15">
         <v>0.52324530813507997</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="15">
         <v>0.51664093139735101</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="15">
         <v>0.70462957498101497</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R15" s="15">
         <v>0.72396277016339805</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="15">
         <v>0.71411948912421097</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="15">
         <v>0.69678053916251403</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="15">
         <v>0.67701056519337999</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="15">
         <v>0.83092760660597198</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="15">
         <v>0.72035646052556002</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="15">
         <v>0.75584785866541904</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="15">
         <v>0.74086732403363498</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="15">
         <v>0.98084151237444095</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="15">
         <v>1.0788218145864601</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="7">
         <v>1.02290929240538</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="15">
         <v>0.758933657672062</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="15">
         <v>0.73880289265551902</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="15">
         <v>0.72217636900071502</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="15">
         <v>0.73324232977633197</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="15">
         <v>0.72172494271188603</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="15">
         <v>0.71683614676506602</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="15">
         <v>0.95676211620226304</v>
       </c>
-      <c r="R16" s="13">
+      <c r="R16" s="15">
         <v>0.95512278762793501</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="7">
         <v>0.96097579034007696</v>
       </c>
     </row>
@@ -4975,7 +5478,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+      <c r="B4" s="6">
         <v>3321.5396628179901</v>
       </c>
       <c r="D4">
@@ -4984,7 +5487,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="B5" s="6">
         <v>3100.0631732490001</v>
       </c>
       <c r="D5">
@@ -4993,37 +5496,37 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="6">
         <v>3113.067758096</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="6">
         <v>3311.976387228</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="6">
         <v>3216.2554046079999</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="B9" s="6">
         <v>3330.0568148689999</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="6">
         <v>3331.4478488609998</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="6">
         <v>3285.3072182239998</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="B12" s="6">
         <v>3449.896734333</v>
       </c>
     </row>
